--- a/results/results_xView.xlsx
+++ b/results/results_xView.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\school\e2cnn_experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29030EE9-E2B0-4C65-A9E8-17713A364C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80517E06-6A14-462E-B602-B5B50B8811D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="22950" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_xView - Copy" sheetId="1" r:id="rId1"/>
@@ -610,6 +610,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Equivariant vs Non-Equivariant Model</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Train/Test Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (xView)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1006,6 +1045,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1622,6 +1662,45 @@
                 <c:pt idx="86">
                   <c:v>1298.4453129999999</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>1330.840698</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1273.54187</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1283.8204350000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1280.415039</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1278.885254</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1266.36499</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1259.6210940000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1231.7777100000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1232.2867429999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1236.230225</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1209.2108149999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1221.946655</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1204.8862300000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1651,6 +1730,7 @@
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1924,6 +2004,45 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>19122.878909999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19768.154299999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19621.175780000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19282.796880000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19332.460940000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21239.306639999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20324.962889999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19463.509770000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19926.404299999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19399.427729999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19380.689450000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19312.802729999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19868.664059999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19222.16992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,6 +2120,7 @@
         <c:axId val="1297281487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2151,6 +2271,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Equivariant</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Non-Equivariant Model</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Train/Test Accuracy (xView)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2547,7 +2706,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3164,6 +3323,45 @@
                 <c:pt idx="86">
                   <c:v>93.520685490000005</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>93.445190999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93.709421710000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>93.65091348</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>93.673561829999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.71697116</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.749056319999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93.739619509999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93.839649710000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>93.905707379999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>93.818888720000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>94.096330969999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>93.956666159999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93.960440890000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3193,7 +3391,7 @@
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3467,6 +3665,45 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>70.995996000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>68.86886887</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>70.098431770000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>70.672339010000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70.383717050000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>65.806639970000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>68.188188190000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>70.705705710000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>68.72872873</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>70.379546210000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>70.278611949999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>70.948448450000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>69.221721720000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>70.816649979999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7739,6 +7976,18 @@
       <c r="E89">
         <v>21994.462890625</v>
       </c>
+      <c r="F89">
+        <v>93.445190999999994</v>
+      </c>
+      <c r="G89">
+        <v>1330.840698</v>
+      </c>
+      <c r="H89">
+        <v>68.86886887</v>
+      </c>
+      <c r="I89">
+        <v>19768.154299999998</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -7756,6 +8005,18 @@
       <c r="E90">
         <v>22142.474609375</v>
       </c>
+      <c r="F90">
+        <v>93.709421710000001</v>
+      </c>
+      <c r="G90">
+        <v>1273.54187</v>
+      </c>
+      <c r="H90">
+        <v>70.098431770000005</v>
+      </c>
+      <c r="I90">
+        <v>19621.175780000001</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -7773,6 +8034,18 @@
       <c r="E91">
         <v>22420.93359375</v>
       </c>
+      <c r="F91">
+        <v>93.65091348</v>
+      </c>
+      <c r="G91">
+        <v>1283.8204350000001</v>
+      </c>
+      <c r="H91">
+        <v>70.672339010000002</v>
+      </c>
+      <c r="I91">
+        <v>19282.796880000002</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -7790,6 +8063,18 @@
       <c r="E92">
         <v>20436.857421875</v>
       </c>
+      <c r="F92">
+        <v>93.673561829999997</v>
+      </c>
+      <c r="G92">
+        <v>1280.415039</v>
+      </c>
+      <c r="H92">
+        <v>70.383717050000001</v>
+      </c>
+      <c r="I92">
+        <v>19332.460940000001</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -7807,6 +8092,18 @@
       <c r="E93">
         <v>20934.849609375</v>
       </c>
+      <c r="F93">
+        <v>93.71697116</v>
+      </c>
+      <c r="G93">
+        <v>1278.885254</v>
+      </c>
+      <c r="H93">
+        <v>65.806639970000006</v>
+      </c>
+      <c r="I93">
+        <v>21239.306639999999</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -7824,6 +8121,18 @@
       <c r="E94">
         <v>21811.962890625</v>
       </c>
+      <c r="F94">
+        <v>93.749056319999994</v>
+      </c>
+      <c r="G94">
+        <v>1266.36499</v>
+      </c>
+      <c r="H94">
+        <v>68.188188190000005</v>
+      </c>
+      <c r="I94">
+        <v>20324.962889999999</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -7841,6 +8150,18 @@
       <c r="E95">
         <v>21558.23828125</v>
       </c>
+      <c r="F95">
+        <v>93.739619509999997</v>
+      </c>
+      <c r="G95">
+        <v>1259.6210940000001</v>
+      </c>
+      <c r="H95">
+        <v>70.705705710000004</v>
+      </c>
+      <c r="I95">
+        <v>19463.509770000001</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -7858,8 +8179,20 @@
       <c r="E96">
         <v>22412.05078125</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>93.839649710000003</v>
+      </c>
+      <c r="G96">
+        <v>1231.7777100000001</v>
+      </c>
+      <c r="H96">
+        <v>68.72872873</v>
+      </c>
+      <c r="I96">
+        <v>19926.404299999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7875,8 +8208,20 @@
       <c r="E97">
         <v>21835.626953125</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>93.905707379999996</v>
+      </c>
+      <c r="G97">
+        <v>1232.2867429999999</v>
+      </c>
+      <c r="H97">
+        <v>70.379546210000001</v>
+      </c>
+      <c r="I97">
+        <v>19399.427729999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7892,8 +8237,20 @@
       <c r="E98">
         <v>22989.689453125</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>93.818888720000004</v>
+      </c>
+      <c r="G98">
+        <v>1236.230225</v>
+      </c>
+      <c r="H98">
+        <v>70.278611949999998</v>
+      </c>
+      <c r="I98">
+        <v>19380.689450000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7909,8 +8266,20 @@
       <c r="E99">
         <v>20373.140625</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>94.096330969999997</v>
+      </c>
+      <c r="G99">
+        <v>1209.2108149999999</v>
+      </c>
+      <c r="H99">
+        <v>70.948448450000001</v>
+      </c>
+      <c r="I99">
+        <v>19312.802729999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7926,8 +8295,20 @@
       <c r="E100">
         <v>24942.23046875</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>93.956666159999997</v>
+      </c>
+      <c r="G100">
+        <v>1221.946655</v>
+      </c>
+      <c r="H100">
+        <v>69.221721720000005</v>
+      </c>
+      <c r="I100">
+        <v>19868.664059999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7942,6 +8323,18 @@
       </c>
       <c r="E101">
         <v>22137.005859375</v>
+      </c>
+      <c r="F101">
+        <v>93.960440890000001</v>
+      </c>
+      <c r="G101">
+        <v>1204.8862300000001</v>
+      </c>
+      <c r="H101">
+        <v>70.816649979999994</v>
+      </c>
+      <c r="I101">
+        <v>19222.16992</v>
       </c>
     </row>
   </sheetData>
